--- a/Base/Teams/Panthers/2021 Team Data.xlsx
+++ b/Base/Teams/Panthers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 3 0 3 5 3 2 6 1 1 0 2 5 -1 -1 16 6 0 7 3 5 9 0 2 -2 0 11 0 -1 1 3 2 -5 3 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 5 1 5 6 0 26 3 1 5 0 3 3 -4 1 2 9 -5 8 2 3 11 1 8 6 11 3 5 -1 2 5 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5</t>
-  </si>
-  <si>
-    <t>11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 32 20 20 19 8 5 13 18 19 5 16 7 17 2 10 6 7 13 8 1 4 8 11 11 16 9 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 6 13 14 5 6 12 11 -1 8 5 7 0 7 5 24 2 8 9 4 7 25 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 4 17 -2 13 10 23 7 9 21 4 11 1 11 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 64 4 13 4 7 18 24 13 17</t>
-  </si>
-  <si>
-    <t>2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 2 2 0 0 4 2 12 0 1 7 1 5 9 -7 8 6 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 6 4 1 3 0 1 4 4 1 4 14 3 6 1 6 7 18 -3 12 1 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1</t>
-  </si>
-  <si>
-    <t>7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 9 7 4 16 3 7 4 27 3 8 23 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 18 12 10 14 18 4 7 20 35 6 7 6 23 8 -7 6 -5 3 10 8 8 2 7 2 0 1 15 17 7 11 8 13 5 53 14 20 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 7 8 12 -1 4 9 41 3 28 3 7 18 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 30 7 39 6 4 5 12 12 7 13 4 15 10 18 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6</t>
+    <t>7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 3 0 3 5 3 2 6 1 1 0 2 5 -1 -1 16 6 0 7 3 5 9 0 2 -2 0 11 0 -1 1 3 2 -5 3 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 5 1 5 6 0 26 3 1 5 0 3 3 -4 1 2 9 -5 8 2 3 11 1 8 6 11 3 5 -1 2 5 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4</t>
+  </si>
+  <si>
+    <t>11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 32 20 20 19 8 5 13 18 19 5 16 7 17 2 10 6 7 13 8 1 4 8 11 11 16 9 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 6 13 14 5 6 12 11 -1 8 5 7 0 7 5 24 2 8 9 4 7 25 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 4 17 -2 13 10 23 7 9 21 4 11 1 11 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 64 4 13 4 7 18 24 13 17 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11</t>
+  </si>
+  <si>
+    <t>2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 2 2 0 0 4 2 12 0 1 7 1 5 9 -7 8 6 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 6 4 1 3 0 1 4 4 1 4 14 3 6 1 6 7 18 -3 12 1 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3</t>
+  </si>
+  <si>
+    <t>7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 9 7 4 16 3 7 4 27 3 8 23 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 18 12 10 14 18 4 7 20 35 6 7 6 23 8 -7 6 -5 3 10 8 8 2 7 2 0 1 15 17 7 11 8 13 5 53 14 20 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 7 8 12 -1 4 9 41 3 28 3 7 18 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 30 7 39 6 4 5 12 12 7 13 4 15 10 18 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>62 64 61 68 50 65 67 64 60 70 68 63 67 66 70 70 66 74 60 61</t>
-  </si>
-  <si>
-    <t>32 24 39 28 17 33 19 38 14 27 19 45 23 23 25 30 28 27 23 30</t>
-  </si>
-  <si>
-    <t>21 21 39 13 31 24 16 13 10 21 22 26 21</t>
-  </si>
-  <si>
-    <t>36 18 54 35 46 36 33 39 51 37 32 42 37 49 49 43 44 42 44 30 40 33 40 40 44 39 44 36 28 39 46 32 40 34 39 49 36 46 44 57 59 46 43 44 55 54 48 50 32 55 57 55 40 51</t>
-  </si>
-  <si>
-    <t>0 0 15 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 22 0 0 7 0 0 0 0 0 0 2 12 6 0 4 8 0 13 0 18 15 7 0 1 17 7 0 0 0 0 7 7 0 0</t>
-  </si>
-  <si>
-    <t>4 9 0 0 0 12 15 0 10 14 0 0 0 5 0 12 0 0 0 0 0 0 0 0 0 22 8 0 9 1 0 4 0 0 10 0 0 4 0 0 0 0 0 0 4 0 10 0 16 10 0 0 0 0 0 0</t>
+    <t>62 64 61 68 50 65 67 64 60 70 68 63 67 66 70 70 66 74 60 61 63</t>
+  </si>
+  <si>
+    <t>32 24 39 28 17 33 19 38 14 27 19 45 23 23 25 30 28 27 23 30 38</t>
+  </si>
+  <si>
+    <t>21 21 39 13 31 24 16 13 10 21 22 26 21 26 28 0 25</t>
+  </si>
+  <si>
+    <t>36 18 54 35 46 36 33 39 51 37 32 42 37 49 49 43 44 42 44 30 40 33 40 40 44 39 44 36 28 39 46 32 40 34 39 49 36 46 44 57 59 46 43 44 55 54 48 50 32 55 57 55 40 51 54 33</t>
+  </si>
+  <si>
+    <t>0 0 15 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 22 0 0 7 0 0 0 0 0 0 2 12 6 0 4 8 0 13 0 18 15 7 0 1 17 7 0 0 0 0 7 7 0 0 0 0</t>
+  </si>
+  <si>
+    <t>4 9 0 0 0 12 15 0 10 14 0 0 0 5 0 12 0 0 0 0 0 0 0 0 0 22 8 0 9 1 0 4 0 0 10 0 0 4 0 0 0 0 0 0 4 0 10 0 16 10 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="M2">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="N2">
         <v>19</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>375</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,19 +718,19 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -739,10 +739,10 @@
         <v>22</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>116</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -964,28 +964,28 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="M2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="N2">
         <v>15</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>363</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,28 +993,28 @@
         <v>18</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>112</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>108</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
       <c r="E3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G3">
         <v>16</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>45</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>

--- a/Base/Teams/Panthers/2021 Team Data.xlsx
+++ b/Base/Teams/Panthers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 3 0 3 5 3 2 6 1 1 0 2 5 -1 -1 16 6 0 7 3 5 9 0 2 -2 0 11 0 -1 1 3 2 -5 3 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 5 1 5 6 0 26 3 1 5 0 3 3 -4 1 2 9 -5 8 2 3 11 1 8 6 11 3 5 -1 2 5 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4</t>
-  </si>
-  <si>
-    <t>11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 32 20 20 19 8 5 13 18 19 5 16 7 17 2 10 6 7 13 8 1 4 8 11 11 16 9 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 6 13 14 5 6 12 11 -1 8 5 7 0 7 5 24 2 8 9 4 7 25 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 4 17 -2 13 10 23 7 9 21 4 11 1 11 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 64 4 13 4 7 18 24 13 17 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11</t>
-  </si>
-  <si>
-    <t>2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 2 2 0 0 4 2 12 0 1 7 1 5 9 -7 8 6 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 6 4 1 3 0 1 4 4 1 4 14 3 6 1 6 7 18 -3 12 1 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3</t>
-  </si>
-  <si>
-    <t>7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 9 7 4 16 3 7 4 27 3 8 23 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 18 12 10 14 18 4 7 20 35 6 7 6 23 8 -7 6 -5 3 10 8 8 2 7 2 0 1 15 17 7 11 8 13 5 53 14 20 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 7 8 12 -1 4 9 41 3 28 3 7 18 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 30 7 39 6 4 5 12 12 7 13 4 15 10 18 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23</t>
+    <t>7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 3 0 3 5 3 2 6 1 1 0 2 5 -1 -1 16 6 0 7 3 5 9 0 2 -2 0 11 0 -1 1 3 2 -5 3 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 5 1 5 6 0 26 3 1 5 0 3 3 -4 1 2 9 -5 8 2 3 11 1 8 6 11 3 5 -1 2 5 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5</t>
+  </si>
+  <si>
+    <t>11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 32 20 20 19 8 5 13 18 19 5 16 7 17 2 10 6 7 13 8 1 4 8 11 11 16 9 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 6 13 14 5 6 12 11 -1 8 5 7 0 7 5 24 2 8 9 4 7 25 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 4 17 -2 13 10 23 7 9 21 4 11 1 11 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 64 4 13 4 7 18 24 13 17 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8</t>
+  </si>
+  <si>
+    <t>2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 2 2 0 0 4 2 12 0 1 7 1 5 9 -7 8 6 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 6 4 1 3 0 1 4 4 1 4 14 3 6 1 6 7 18 -3 12 1 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1</t>
+  </si>
+  <si>
+    <t>7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 9 7 4 16 3 7 4 27 3 8 23 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 18 12 10 14 18 4 7 20 35 6 7 6 23 8 -7 6 -5 3 10 8 8 2 7 2 0 1 15 17 7 11 8 13 5 53 14 20 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 7 8 12 -1 4 9 41 3 28 3 7 18 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 30 7 39 6 4 5 12 12 7 13 4 15 10 18 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>62 64 61 68 50 65 67 64 60 70 68 63 67 66 70 70 66 74 60 61 63</t>
-  </si>
-  <si>
-    <t>32 24 39 28 17 33 19 38 14 27 19 45 23 23 25 30 28 27 23 30 38</t>
-  </si>
-  <si>
-    <t>21 21 39 13 31 24 16 13 10 21 22 26 21 26 28 0 25</t>
-  </si>
-  <si>
-    <t>36 18 54 35 46 36 33 39 51 37 32 42 37 49 49 43 44 42 44 30 40 33 40 40 44 39 44 36 28 39 46 32 40 34 39 49 36 46 44 57 59 46 43 44 55 54 48 50 32 55 57 55 40 51 54 33</t>
-  </si>
-  <si>
-    <t>0 0 15 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 22 0 0 7 0 0 0 0 0 0 2 12 6 0 4 8 0 13 0 18 15 7 0 1 17 7 0 0 0 0 7 7 0 0 0 0</t>
-  </si>
-  <si>
-    <t>4 9 0 0 0 12 15 0 10 14 0 0 0 5 0 12 0 0 0 0 0 0 0 0 0 22 8 0 9 1 0 4 0 0 10 0 0 4 0 0 0 0 0 0 4 0 10 0 16 10 0 0 0 0 0 0 0 0</t>
+    <t>62 64 61 68 50 65 67 64 60 70 68 63 67 66 70 70 66 74 60 61 63 49 47 50</t>
+  </si>
+  <si>
+    <t>32 24 39 28 17 33 19 38 14 27 19 45 23 23 25 30 28 27 23 30 38 13 8 28</t>
+  </si>
+  <si>
+    <t>21 21 39 13 31 24 16 13 10 21 22 26 21 26 28 0 25 21 10 18 21</t>
+  </si>
+  <si>
+    <t>36 18 54 35 46 36 33 39 51 37 32 42 37 49 49 43 44 42 44 30 40 33 40 40 44 39 44 36 28 39 46 32 40 34 39 49 36 46 44 57 59 46 43 44 55 54 48 50 32 55 57 55 40 51 54 33 47 54 41 40</t>
+  </si>
+  <si>
+    <t>0 0 15 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 22 0 0 7 0 0 0 0 0 0 2 12 6 0 4 8 0 13 0 18 15 7 0 1 17 7 0 0 0 0 7 7 0 0 0 0 17 14 0 0</t>
+  </si>
+  <si>
+    <t>4 9 0 0 0 12 15 0 10 14 0 0 0 5 0 12 0 0 0 0 0 0 0 0 0 22 8 0 9 1 0 4 0 0 10 0 0 4 0 0 0 0 0 0 4 0 10 0 16 10 0 0 0 0 0 0 0 0 0 0 0 0 16</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>145</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2">
         <v>438</v>
@@ -721,37 +721,37 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="M3">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="N3">
         <v>13</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>391</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -952,19 +952,19 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>133</v>
       </c>
       <c r="N2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
         <v>430</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>125</v>
+      </c>
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>112</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <v>16</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="M3">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>338</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,10 +1233,10 @@
         <v>127</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>53</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Panthers/2021 Team Data.xlsx
+++ b/Base/Teams/Panthers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 3 0 3 5 3 2 6 1 1 0 2 5 -1 -1 16 6 0 7 3 5 9 0 2 -2 0 11 0 -1 1 3 2 -5 3 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 5 1 5 6 0 26 3 1 5 0 3 3 -4 1 2 9 -5 8 2 3 11 1 8 6 11 3 5 -1 2 5 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5</t>
-  </si>
-  <si>
-    <t>11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 32 20 20 19 8 5 13 18 19 5 16 7 17 2 10 6 7 13 8 1 4 8 11 11 16 9 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 6 13 14 5 6 12 11 -1 8 5 7 0 7 5 24 2 8 9 4 7 25 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 4 17 -2 13 10 23 7 9 21 4 11 1 11 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 64 4 13 4 7 18 24 13 17 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8</t>
-  </si>
-  <si>
-    <t>2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 2 2 0 0 4 2 12 0 1 7 1 5 9 -7 8 6 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 6 4 1 3 0 1 4 4 1 4 14 3 6 1 6 7 18 -3 12 1 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1</t>
-  </si>
-  <si>
-    <t>7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 9 7 4 16 3 7 4 27 3 8 23 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 18 12 10 14 18 4 7 20 35 6 7 6 23 8 -7 6 -5 3 10 8 8 2 7 2 0 1 15 17 7 11 8 13 5 53 14 20 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 7 8 12 -1 4 9 41 3 28 3 7 18 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 30 7 39 6 4 5 12 12 7 13 4 15 10 18 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20</t>
+    <t>7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 3 0 3 5 3 2 6 1 1 0 2 5 -1 -1 16 6 0 7 3 5 9 0 2 -2 0 11 0 -1 1 3 2 -5 3 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 5 1 5 6 0 26 3 1 5 0 3 3 -4 1 2 9 -5 8 2 3 11 1 8 6 11 3 5 -1 2 5 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11</t>
+  </si>
+  <si>
+    <t>11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 32 20 20 19 8 5 13 18 19 5 16 7 17 2 10 6 7 13 8 1 4 8 11 11 16 9 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 6 13 14 5 6 12 11 -1 8 5 7 0 7 5 24 2 8 9 4 7 25 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 4 17 -2 13 10 23 7 9 21 4 11 1 11 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 64 4 13 4 7 18 24 13 17 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6</t>
+  </si>
+  <si>
+    <t>2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 2 2 0 0 4 2 12 0 1 7 1 5 9 -7 8 6 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 6 4 1 3 0 1 4 4 1 4 14 3 6 1 6 7 18 -3 12 1 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1</t>
+  </si>
+  <si>
+    <t>7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 9 7 4 16 3 7 4 27 3 8 23 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 18 12 10 14 18 4 7 20 35 6 7 6 23 8 -7 6 -5 3 10 8 8 2 7 2 0 1 15 17 7 11 8 13 5 53 14 20 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 7 8 12 -1 4 9 41 3 28 3 7 18 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 30 7 39 6 4 5 12 12 7 13 4 15 10 18 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>32 24 39 28 17 33 19 38 14 27 19 45 23 23 25 30 28 27 23 30 38 13 8 28</t>
   </si>
   <si>
-    <t>21 21 39 13 31 24 16 13 10 21 22 26 21 26 28 0 25 21 10 18 21</t>
-  </si>
-  <si>
-    <t>36 18 54 35 46 36 33 39 51 37 32 42 37 49 49 43 44 42 44 30 40 33 40 40 44 39 44 36 28 39 46 32 40 34 39 49 36 46 44 57 59 46 43 44 55 54 48 50 32 55 57 55 40 51 54 33 47 54 41 40</t>
-  </si>
-  <si>
-    <t>0 0 15 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 22 0 0 7 0 0 0 0 0 0 2 12 6 0 4 8 0 13 0 18 15 7 0 1 17 7 0 0 0 0 7 7 0 0 0 0 17 14 0 0</t>
-  </si>
-  <si>
-    <t>4 9 0 0 0 12 15 0 10 14 0 0 0 5 0 12 0 0 0 0 0 0 0 0 0 22 8 0 9 1 0 4 0 0 10 0 0 4 0 0 0 0 0 0 4 0 10 0 16 10 0 0 0 0 0 0 0 0 0 0 0 0 16</t>
+    <t>21 21 39 13 31 24 16 13 10 21 22 26 21 26 28 0 25 21 10 18 21 27 25 26</t>
+  </si>
+  <si>
+    <t>36 18 54 35 46 36 33 39 51 37 32 42 37 49 49 43 44 42 44 30 40 33 40 40 44 39 44 36 28 39 46 32 40 34 39 49 36 46 44 57 59 46 43 44 55 54 48 50 32 55 57 55 40 51 54 33 47 54 41 40 40 50 55 48 60</t>
+  </si>
+  <si>
+    <t>0 0 15 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 22 0 0 7 0 0 0 0 0 0 2 12 6 0 4 8 0 13 0 18 15 7 0 1 17 7 0 0 0 0 7 7 0 0 0 0 17 14 0 0 4 9 20 6 5</t>
+  </si>
+  <si>
+    <t>4 9 0 0 0 12 15 0 10 14 0 0 0 5 0 12 0 0 0 0 0 0 0 0 0 22 8 0 9 1 0 4 0 0 10 0 0 4 0 0 0 0 0 0 4 0 10 0 16 10 0 0 0 0 0 0 0 0 0 0 0 0 16 16 6 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -677,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -689,28 +689,28 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="M2">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="N2">
         <v>23</v>
       </c>
       <c r="O2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P2">
         <v>12</v>
       </c>
       <c r="Q2">
-        <v>438</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G3">
         <v>21</v>
       </c>
       <c r="H3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="J3">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>134</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -964,16 +964,16 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="M2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="N2">
         <v>19</v>
@@ -985,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="Q2">
-        <v>430</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1239,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="J2">
+        <v>55</v>
+      </c>
+      <c r="K2">
         <v>53</v>
-      </c>
-      <c r="K2">
-        <v>51</v>
       </c>
       <c r="L2">
         <v>41</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -1368,10 +1368,10 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Panthers/2021 Team Data.xlsx
+++ b/Base/Teams/Panthers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 3 0 3 5 3 2 6 1 1 0 2 5 -1 -1 16 6 0 7 3 5 9 0 2 -2 0 11 0 -1 1 3 2 -5 3 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 5 1 5 6 0 26 3 1 5 0 3 3 -4 1 2 9 -5 8 2 3 11 1 8 6 11 3 5 -1 2 5 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11</t>
-  </si>
-  <si>
-    <t>11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 32 20 20 19 8 5 13 18 19 5 16 7 17 2 10 6 7 13 8 1 4 8 11 11 16 9 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 6 13 14 5 6 12 11 -1 8 5 7 0 7 5 24 2 8 9 4 7 25 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 4 17 -2 13 10 23 7 9 21 4 11 1 11 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 64 4 13 4 7 18 24 13 17 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6</t>
-  </si>
-  <si>
-    <t>2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 2 2 0 0 4 2 12 0 1 7 1 5 9 -7 8 6 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 6 4 1 3 0 1 4 4 1 4 14 3 6 1 6 7 18 -3 12 1 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1</t>
-  </si>
-  <si>
-    <t>7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 9 7 4 16 3 7 4 27 3 8 23 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 18 12 10 14 18 4 7 20 35 6 7 6 23 8 -7 6 -5 3 10 8 8 2 7 2 0 1 15 17 7 11 8 13 5 53 14 20 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 7 8 12 -1 4 9 41 3 28 3 7 18 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 30 7 39 6 4 5 12 12 7 13 4 15 10 18 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10</t>
+    <t>7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 3 0 3 5 3 2 6 1 1 0 2 5 -1 -1 16 6 0 7 3 5 9 0 2 -2 0 11 0 -1 1 3 2 -5 3 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 5 1 5 6 0 26 3 1 5 0 3 3 -4 1 2 9 -5 8 2 3 11 1 8 6 11 3 5 -1 2 5 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11 0 5 1 3 2 -1 6 5 0 5 21 1 4 15 0 1 1 -1 1 2 -1 0 9 2 6 1</t>
+  </si>
+  <si>
+    <t>11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 32 20 20 19 8 5 13 18 19 5 16 7 17 2 10 6 7 13 8 1 4 8 11 11 16 9 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 6 13 14 5 6 12 11 -1 8 5 7 0 7 5 24 2 8 9 4 7 25 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 4 17 -2 13 10 23 7 9 21 4 11 1 11 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 64 4 13 4 7 18 24 13 17 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6 6 17 21 8 -1 10 3 7 17 1 -5 20 5 8 9 3 3</t>
+  </si>
+  <si>
+    <t>2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 2 2 0 0 4 2 12 0 1 7 1 5 9 -7 8 6 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 6 4 1 3 0 1 4 4 1 4 14 3 6 1 6 7 18 -3 12 1 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1 0 4 -2 -1 2 0 -4 -2 -1 0 3 2 9 2 2 3 1 6 14 3 -1 30 9 0 -3 0</t>
+  </si>
+  <si>
+    <t>7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 9 7 4 16 3 7 4 27 3 8 23 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 18 12 10 14 18 4 7 20 35 6 7 6 23 8 -7 6 -5 3 10 8 8 2 7 2 0 1 15 17 7 11 8 13 5 53 14 20 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 7 8 12 -1 4 9 41 3 28 3 7 18 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 30 7 39 6 4 5 12 12 7 13 4 15 10 18 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10 29 14 7 6 4 7 30 28 18 15 8 8 9 14 9 4 12</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>62 64 61 68 50 65 67 64 60 70 68 63 67 66 70 70 66 74 60 61 63 49 47 50</t>
-  </si>
-  <si>
-    <t>32 24 39 28 17 33 19 38 14 27 19 45 23 23 25 30 28 27 23 30 38 13 8 28</t>
-  </si>
-  <si>
-    <t>21 21 39 13 31 24 16 13 10 21 22 26 21 26 28 0 25 21 10 18 21 27 25 26</t>
-  </si>
-  <si>
-    <t>36 18 54 35 46 36 33 39 51 37 32 42 37 49 49 43 44 42 44 30 40 33 40 40 44 39 44 36 28 39 46 32 40 34 39 49 36 46 44 57 59 46 43 44 55 54 48 50 32 55 57 55 40 51 54 33 47 54 41 40 40 50 55 48 60</t>
-  </si>
-  <si>
-    <t>0 0 15 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 22 0 0 7 0 0 0 0 0 0 2 12 6 0 4 8 0 13 0 18 15 7 0 1 17 7 0 0 0 0 7 7 0 0 0 0 17 14 0 0 4 9 20 6 5</t>
-  </si>
-  <si>
-    <t>4 9 0 0 0 12 15 0 10 14 0 0 0 5 0 12 0 0 0 0 0 0 0 0 0 22 8 0 9 1 0 4 0 0 10 0 0 4 0 0 0 0 0 0 4 0 10 0 16 10 0 0 0 0 0 0 0 0 0 0 0 0 16 16 6 0</t>
+    <t>62 64 61 68 50 65 67 64 60 70 68 63 67 66 70 70 66 74 60 61 63 49 47 50 72 66</t>
+  </si>
+  <si>
+    <t>32 24 39 28 17 33 19 38 14 27 19 45 23 23 25 30 28 27 23 30 38 13 8 28 32 31</t>
+  </si>
+  <si>
+    <t>21 21 39 13 31 24 16 13 10 21 22 26 21 26 28 0 25 21 10 18 21 27 25 26 18</t>
+  </si>
+  <si>
+    <t>36 18 54 35 46 36 33 39 51 37 32 42 37 49 49 43 44 42 44 30 40 33 40 40 44 39 44 36 28 39 46 32 40 34 39 49 36 46 44 57 59 46 43 44 55 54 48 50 32 55 57 55 40 51 54 33 47 54 41 40 40 50 55 48 60 59 62 39 37 38</t>
+  </si>
+  <si>
+    <t>0 0 15 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 22 0 0 7 0 0 0 0 0 0 2 12 6 0 4 8 0 13 0 18 15 7 0 1 17 7 0 0 0 0 7 7 0 0 0 0 17 14 0 0 4 9 20 6 5 1 21 2 3 0</t>
+  </si>
+  <si>
+    <t>4 9 0 0 0 12 15 0 10 14 0 0 0 5 0 12 0 0 0 0 0 0 0 0 0 22 8 0 9 1 0 4 0 0 10 0 0 4 0 0 0 0 0 0 4 0 10 0 16 10 0 0 0 0 0 0 0 0 0 0 0 0 16 16 6 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>167</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>28</v>
@@ -721,37 +721,37 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="M3">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>464</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>150</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2">
         <v>20</v>
@@ -996,37 +996,37 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G3">
         <v>22</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="M3">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>407</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,13 +1239,13 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2">
         <v>29</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Panthers/2021 Team Data.xlsx
+++ b/Base/Teams/Panthers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 3 0 3 5 3 2 6 1 1 0 2 5 -1 -1 16 6 0 7 3 5 9 0 2 -2 0 11 0 -1 1 3 2 -5 3 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 5 1 5 6 0 26 3 1 5 0 3 3 -4 1 2 9 -5 8 2 3 11 1 8 6 11 3 5 -1 2 5 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11 0 5 1 3 2 -1 6 5 0 5 21 1 4 15 0 1 1 -1 1 2 -1 0 9 2 6 1</t>
-  </si>
-  <si>
-    <t>11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 32 20 20 19 8 5 13 18 19 5 16 7 17 2 10 6 7 13 8 1 4 8 11 11 16 9 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 6 13 14 5 6 12 11 -1 8 5 7 0 7 5 24 2 8 9 4 7 25 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 4 17 -2 13 10 23 7 9 21 4 11 1 11 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 64 4 13 4 7 18 24 13 17 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6 6 17 21 8 -1 10 3 7 17 1 -5 20 5 8 9 3 3</t>
-  </si>
-  <si>
-    <t>2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 2 2 0 0 4 2 12 0 1 7 1 5 9 -7 8 6 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 6 4 1 3 0 1 4 4 1 4 14 3 6 1 6 7 18 -3 12 1 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1 0 4 -2 -1 2 0 -4 -2 -1 0 3 2 9 2 2 3 1 6 14 3 -1 30 9 0 -3 0</t>
-  </si>
-  <si>
-    <t>7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 9 7 4 16 3 7 4 27 3 8 23 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 18 12 10 14 18 4 7 20 35 6 7 6 23 8 -7 6 -5 3 10 8 8 2 7 2 0 1 15 17 7 11 8 13 5 53 14 20 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 7 8 12 -1 4 9 41 3 28 3 7 18 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 30 7 39 6 4 5 12 12 7 13 4 15 10 18 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10 29 14 7 6 4 7 30 28 18 15 8 8 9 14 9 4 12</t>
+    <t>7 8 4 1 7 2 3 1 5 8 4 3 2 2 9 0 14 3 -6 7 15 0 18 3 0 3 5 3 2 6 1 1 0 2 5 -1 -1 16 6 0 7 3 5 9 0 2 -2 0 11 0 -1 1 3 2 -5 3 9 0 3 3 5 -3 10 4 9 1 2 1 0 4 13 7 2 2 -1 4 4 12 0 2 14 0 1 6 6 4 14 12 2 -1 1 -1 14 7 4 11 -2 2 6 7 3 3 0 7 -2 7 7 5 1 5 6 0 26 3 1 5 0 3 3 -4 1 2 9 -5 8 2 3 11 1 8 6 11 3 5 -1 2 5 3 2 8 5 3 6 2 3 5 -2 6 9 6 0 5 2 5 2 6 30 0 13 3 6 13 7 -3 2 -2 2 2 4 7 -4 0 1 3 -2 2 4 9 3 9 2 2 1 -2 6 2 5 2 7 2 13 6 6 3 3 6 20 9 2 2 6 4 6 6 6 3 6 6 -2 1 11 8 2 6 -1 1 5 3 2 1 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 1 -1 2 11 11 12 10 6 2 4 12 1 16 15 10 2 5 4 1 1 4 0 5 2 10 4 -9 3 15 4 8 6 -4 -3 1 7 -2 8 6 3 0 -3 4 3 8 3 4 9 6 24 2 4 0 3 6 10 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 -1 11 8 -1 12 8 4 2 4 1 4 1 4 -5 -1 5 11 17 4 0 1 2 -2 2 4 1 11 4 21 3 -2 0 7 8 -4 5 2 2 0 2 30 3 4 1 13 -1 1 7 1 7 8 5 7 5 33 2 -2 1 6 2 2 -2 0 4 5 0 3 3 4 11 0 5 1 3 2 -1 6 5 0 5 21 1 4 15 0 1 1 -1 1 2 -1 0 9 2 6 1 3 5 1 -2 10 4 2 -1 2 6 7 19 9 2 -1 2 5 15 4 2 0 3 1</t>
+  </si>
+  <si>
+    <t>11 13 -5 8 1 9 26 5 27 15 11 57 14 4 5 11 22 17 1 7 12 7 3 -2 32 20 20 19 8 5 13 18 19 5 16 7 17 2 10 6 7 13 8 1 4 8 11 11 16 9 7 1 29 12 26 1 13 8 24 12 7 8 10 10 16 25 10 8 30 5 8 11 23 9 29 9 3 13 6 5 17 1 8 5 9 39 9 15 2 11 4 7 13 8 6 5 5 8 6 13 14 5 6 12 11 -1 8 5 7 0 7 5 24 2 8 9 4 7 25 9 0 16 18 17 5 15 14 1 4 4 21 6 4 7 4 2 9 1 3 5 5 12 21 5 12 6 13 7 5 1 7 7 19 4 17 -2 13 10 23 7 9 21 4 11 1 11 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 13 17 2 6 16 -2 6 10 2 3 11 6 9 2 10 6 10 1 2 3 9 8 15 7 3 8 13 10 5 3 11 2 19 7 9 4 10 16 27 7 6 4 8 11 7 64 4 13 4 7 18 24 13 17 7 11 15 22 10 23 9 8 14 6 18 7 9 3 19 19 13 18 11 1 9 8 8 9 4 11 13 9 16 4 23 5 6 8 5 8 14 8 10 5 15 63 0 4 6 2 9 19 8 6 13 2 18 14 6 6 17 6 6 17 21 8 -1 10 3 7 17 1 -5 20 5 8 9 3 3 20 11 6 7 3 2 19 8 3 -2 18 9 1 13 5 1 6 17 6 9 5 15 6 4 3</t>
+  </si>
+  <si>
+    <t>2 1 1 2 6 2 2 0 2 2 1 1 1 9 2 12 2 2 0 0 4 2 12 0 1 7 1 5 9 -7 8 6 5 6 6 4 2 -1 1 -2 7 1 4 3 1 1 3 1 0 2 2 19 0 8 7 5 7 1 4 0 1 2 6 1 11 5 5 47 14 0 14 0 0 10 5 2 18 8 1 5 6 4 1 3 0 1 4 4 1 4 14 3 6 1 6 7 18 -3 12 1 -3 2 -3 3 4 14 5 9 1 3 4 3 5 1 8 9 6 0 14 2 0 30 16 -1 -1 23 4 0 3 3 -1 -3 16 5 4 16 14 -1 7 2 2 0 1 9 3 0 -2 -2 7 11 3 4 2 3 6 2 2 -2 4 19 0 4 9 2 4 1 -1 9 0 5 2 18 2 8 -2 3 3 14 5 0 5 3 1 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 4 0 -1 1 6 2 4 0 4 0 0 4 4 6 11 11 1 9 4 3 10 2 -2 4 -3 15 5 2 11 1 8 3 4 0 1 4 5 11 20 2 0 11 9 4 9 4 2 8 -2 0 14 3 11 0 0 7 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 5 -1 0 2 6 5 4 11 0 4 -1 4 11 4 0 11 1 4 3 11 8 5 9 0 2 1 -2 1 11 11 4 2 3 5 3 8 2 16 6 3 0 2 2 26 3 4 1 -2 12 3 1 2 4 1 8 7 4 5 2 1 5 3 4 5 55 0 4 4 4 -2 9 1 2 3 -1 3 1 1 2 0 11 14 7 2 -3 16 -1 12 -1 0 -1 0 4 -2 -1 2 0 -4 -2 -1 0 3 2 9 2 2 3 1 6 14 3 -1 30 9 0 -3 0 9 2 3 2 3 1 6 2 1 0 3 7 4 -2 33</t>
+  </si>
+  <si>
+    <t>7 35 10 14 10 8 -3 1 11 20 7 8 22 6 15 2 40 12 8 9 7 4 16 3 7 4 27 3 8 23 -1 11 4 5 8 30 10 11 1 10 5 5 13 15 11 5 12 5 18 12 10 14 18 4 7 20 35 6 7 6 23 8 -7 6 -5 3 10 8 8 2 7 2 0 1 15 17 7 11 8 13 5 53 14 20 11 9 6 7 7 3 3 20 7 24 13 2 -6 8 14 7 9 24 35 5 17 26 40 3 4 12 6 8 6 7 13 -3 27 15 -2 6 18 7 1 27 15 7 16 15 1 6 8 15 -4 2 14 16 2 5 8 9 12 4 12 3 7 7 15 11 2 2 18 1 -3 2 9 17 5 8 15 10 7 8 12 -1 4 9 41 3 28 3 7 18 1 4 19 5 20 4 0 5 19 21 7 9 -5 17 5 3 30 7 39 6 4 5 12 12 7 13 4 15 10 18 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 -2 6 36 9 13 3 20 4 4 14 12 7 14 3 11 6 2 23 12 9 15 9 10 12 11 4 10 9 7 11 7 7 7 8 28 20 4 3 4 13 7 19 7 1 10 22 62 13 23 11 12 7 10 29 14 7 6 4 7 30 28 18 15 8 8 9 14 9 4 12 5 5 3 7 0 37 7 20 24 1 42 19 0 7 5 10 4 7 9 7 14 5 3 28 7 9 20 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>62 64 61 68 50 65 67 64 60 70 68 63 67 66 70 70 66 74 60 61 63 49 47 50 72 66</t>
-  </si>
-  <si>
-    <t>32 24 39 28 17 33 19 38 14 27 19 45 23 23 25 30 28 27 23 30 38 13 8 28 32 31</t>
-  </si>
-  <si>
-    <t>21 21 39 13 31 24 16 13 10 21 22 26 21 26 28 0 25 21 10 18 21 27 25 26 18</t>
-  </si>
-  <si>
-    <t>36 18 54 35 46 36 33 39 51 37 32 42 37 49 49 43 44 42 44 30 40 33 40 40 44 39 44 36 28 39 46 32 40 34 39 49 36 46 44 57 59 46 43 44 55 54 48 50 32 55 57 55 40 51 54 33 47 54 41 40 40 50 55 48 60 59 62 39 37 38</t>
-  </si>
-  <si>
-    <t>0 0 15 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 22 0 0 7 0 0 0 0 0 0 2 12 6 0 4 8 0 13 0 18 15 7 0 1 17 7 0 0 0 0 7 7 0 0 0 0 17 14 0 0 4 9 20 6 5 1 21 2 3 0</t>
-  </si>
-  <si>
-    <t>4 9 0 0 0 12 15 0 10 14 0 0 0 5 0 12 0 0 0 0 0 0 0 0 0 22 8 0 9 1 0 4 0 0 10 0 0 4 0 0 0 0 0 0 4 0 10 0 16 10 0 0 0 0 0 0 0 0 0 0 0 0 16 16 6 0 0 0 0 0 0</t>
+    <t>62 64 61 68 50 65 67 64 60 70 68 63 67 66 70 70 66 74 60 61 63 49 47 50 72 66 62 59 61</t>
+  </si>
+  <si>
+    <t>32 24 39 28 17 33 19 38 14 27 19 45 23 23 25 30 28 27 23 30 38 13 8 28 32 31 24 17 34</t>
+  </si>
+  <si>
+    <t>21 21 39 13 31 24 16 13 10 21 22 26 21 26 28 0 25 21 10 18 21 27 25 26 18 20 29 39</t>
+  </si>
+  <si>
+    <t>36 18 54 35 46 36 33 39 51 37 32 42 37 49 49 43 44 42 44 30 40 33 40 40 44 39 44 36 28 39 46 32 40 34 39 49 36 46 44 57 59 46 43 44 55 54 48 50 32 55 57 55 40 51 54 33 47 54 41 40 40 50 55 48 60 59 62 39 37 38 35 50</t>
+  </si>
+  <si>
+    <t>0 0 15 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 22 0 0 7 0 0 0 0 0 0 2 12 6 0 4 8 0 13 0 18 15 7 0 1 17 7 0 0 0 0 7 7 0 0 0 0 17 14 0 0 4 9 20 6 5 1 21 2 3 0 0 4</t>
+  </si>
+  <si>
+    <t>4 9 0 0 0 12 15 0 10 14 0 0 0 5 0 12 0 0 0 0 0 0 0 0 0 22 8 0 9 1 0 4 0 0 10 0 0 4 0 0 0 0 0 0 4 0 10 0 16 10 0 0 0 0 0 0 0 0 0 0 0 0 16 16 6 0 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>167</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q2">
         <v>508</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="M3">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>525</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>150</v>
       </c>
       <c r="N2">
+        <v>22</v>
+      </c>
+      <c r="O2">
         <v>21</v>
       </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
       <c r="P2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2">
         <v>499</v>
@@ -996,37 +996,37 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="M3">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="N3">
         <v>17</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>463</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1239,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2">
         <v>42</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1431,7 +1431,7 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
